--- a/test-data/TestPlan.xlsx
+++ b/test-data/TestPlan.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivanxue/Documents/Study/Selenium/test-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="460" windowWidth="24600" windowHeight="15540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="1000" yWindow="460" windowWidth="24600" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="116">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -39,9 +39,6 @@
     <t>Action_Keyword</t>
   </si>
   <si>
-    <t>Login_01</t>
-  </si>
-  <si>
     <t>TS_001</t>
   </si>
   <si>
@@ -63,101 +60,341 @@
     <t>TS_003</t>
   </si>
   <si>
-    <t>Click on My Account button</t>
-  </si>
-  <si>
     <t>TS_004</t>
   </si>
   <si>
-    <t>Enter the Username in the UserName field</t>
-  </si>
-  <si>
     <t>TS_005</t>
   </si>
   <si>
-    <t>Enter the password in the Password field</t>
-  </si>
-  <si>
     <t>TS_006</t>
   </si>
   <si>
+    <t>Page Object</t>
+  </si>
+  <si>
+    <t>click</t>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>Test Case ID</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Runmode</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Data Set</t>
+  </si>
+  <si>
+    <t>Results</t>
+  </si>
+  <si>
+    <t>chrome</t>
+  </si>
+  <si>
+    <t>TestStep ID</t>
+  </si>
+  <si>
+    <t>https://unichi.com.au/</t>
+  </si>
+  <si>
+    <t>Unichi.exploreBtn</t>
+  </si>
+  <si>
+    <t>Unichi.exploreImg</t>
+  </si>
+  <si>
+    <t>Unichi.buyNowBtn</t>
+  </si>
+  <si>
+    <t>Unichi.addToCartBtn</t>
+  </si>
+  <si>
+    <t>Unichi.checkoutBtn</t>
+  </si>
+  <si>
+    <t>Unichi.nameField</t>
+  </si>
+  <si>
+    <t>Unichi.emailField</t>
+  </si>
+  <si>
+    <t>Unichi.streetField</t>
+  </si>
+  <si>
+    <t>Unichi.cityField</t>
+  </si>
+  <si>
+    <t>Unichi.stateField</t>
+  </si>
+  <si>
+    <t>Unichi.countryList</t>
+  </si>
+  <si>
+    <t>Unichi.postalCodeField</t>
+  </si>
+  <si>
+    <t>Unichi.calculateBtn</t>
+  </si>
+  <si>
+    <t>Unichi.purchaseDetails</t>
+  </si>
+  <si>
+    <t>TS_007</t>
+  </si>
+  <si>
+    <t>TS_008</t>
+  </si>
+  <si>
+    <t>TS_009</t>
+  </si>
+  <si>
+    <t>TS_010</t>
+  </si>
+  <si>
+    <t>TS_011</t>
+  </si>
+  <si>
+    <t>TS_012</t>
+  </si>
+  <si>
+    <t>TS_013</t>
+  </si>
+  <si>
+    <t>TS_014</t>
+  </si>
+  <si>
+    <t>TS_015</t>
+  </si>
+  <si>
+    <t>TS_016</t>
+  </si>
+  <si>
+    <t>TS_017</t>
+  </si>
+  <si>
+    <t>Wait for Explore button to be displayed</t>
+  </si>
+  <si>
+    <t>Click Explore button</t>
+  </si>
+  <si>
+    <t>Wait for Explore image to be displayed</t>
+  </si>
+  <si>
+    <t>Wait for Buy Now button to be displayed</t>
+  </si>
+  <si>
+    <t>Wait for Quantity field to be displayed</t>
+  </si>
+  <si>
+    <t>Unichi.quantityField</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Wait for Checkout button to be displayed</t>
+  </si>
+  <si>
+    <t>Wait Payment page to be displayed</t>
+  </si>
+  <si>
+    <t>Automation Testing</t>
+  </si>
+  <si>
+    <t>Unichi.mobileField</t>
+  </si>
+  <si>
+    <t>421000000</t>
+  </si>
+  <si>
+    <t>300 Wattle Street</t>
+  </si>
+  <si>
+    <t>automation@sk8.asia</t>
+  </si>
+  <si>
+    <t>Sydney</t>
+  </si>
+  <si>
+    <t>NSW</t>
+  </si>
+  <si>
+    <t>select</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Wait for confirmation page to be displayed</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>waitForElement</t>
+  </si>
+  <si>
+    <t>Click Explore image</t>
+  </si>
+  <si>
+    <t>Click Buy Now button</t>
+  </si>
+  <si>
+    <t>Input value in Quantity field</t>
+  </si>
+  <si>
+    <t>Click Add to cart button</t>
+  </si>
+  <si>
+    <t>Click Checkout button</t>
+  </si>
+  <si>
+    <t>Input value in Name field</t>
+  </si>
+  <si>
+    <t>Input value in Mobile field</t>
+  </si>
+  <si>
+    <t>Input value in Email field</t>
+  </si>
+  <si>
+    <t>Input value in Street field</t>
+  </si>
+  <si>
+    <t>Input value in City field</t>
+  </si>
+  <si>
+    <t>Input value in State field</t>
+  </si>
+  <si>
+    <t>Select value from Country list</t>
+  </si>
+  <si>
+    <t>Input value in Postal code field</t>
+  </si>
+  <si>
+    <t>Click Calculate Postage button</t>
+  </si>
+  <si>
+    <t>TS_018</t>
+  </si>
+  <si>
+    <t>TS_019</t>
+  </si>
+  <si>
+    <t>TS_020</t>
+  </si>
+  <si>
+    <t>TS_021</t>
+  </si>
+  <si>
+    <t>TS_022</t>
+  </si>
+  <si>
+    <t>TS_023</t>
+  </si>
+  <si>
+    <t>TS_024</t>
+  </si>
+  <si>
+    <t>TS_025</t>
+  </si>
+  <si>
+    <t>Unichi_01</t>
+  </si>
+  <si>
+    <t>Unichi Automation Testing</t>
+  </si>
+  <si>
+    <t>Validate page contains Purchase Details</t>
+  </si>
+  <si>
+    <t>TS_026</t>
+  </si>
+  <si>
     <t>Close Browser</t>
   </si>
   <si>
     <t>closeBrowser</t>
   </si>
   <si>
-    <t>Page Object</t>
-  </si>
-  <si>
-    <t>click</t>
-  </si>
-  <si>
-    <t>btn_MyAccount</t>
-  </si>
-  <si>
-    <t>input</t>
-  </si>
-  <si>
-    <t>txtbx_UserName</t>
-  </si>
-  <si>
-    <t>txtbx_Password</t>
-  </si>
-  <si>
-    <t>Test Case ID</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Runmode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Login </t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Login_02</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Data Set</t>
-  </si>
-  <si>
-    <t>Results</t>
-  </si>
-  <si>
-    <t>testuser</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
     <t>PASS</t>
   </si>
   <si>
-    <t>chrome</t>
-  </si>
-  <si>
-    <t>http://www.store.demoqa.com</t>
-  </si>
-  <si>
-    <t>TestStep ID</t>
+    <t>Purchase details</t>
+  </si>
+  <si>
+    <t>Google_01</t>
+  </si>
+  <si>
+    <t>safari</t>
+  </si>
+  <si>
+    <t>http://www.google.com.au</t>
+  </si>
+  <si>
+    <t>Enter search keyword</t>
+  </si>
+  <si>
+    <t>Google.keywordField</t>
+  </si>
+  <si>
+    <t>selenium</t>
+  </si>
+  <si>
+    <t>Wait for sometime</t>
+  </si>
+  <si>
+    <t>Validate page contains Selenium</t>
+  </si>
+  <si>
+    <t>validatePageSource</t>
+  </si>
+  <si>
+    <t>Googlesearch testing</t>
+  </si>
+  <si>
+    <t>Click Enter</t>
+  </si>
+  <si>
+    <t>implicityWait</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>clickEnter</t>
+  </si>
+  <si>
+    <t>FAIL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -180,14 +417,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -465,49 +705,55 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="22.6640625" collapsed="true"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>93</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>94</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>110</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -517,19 +763,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="19" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="35.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="35.6640625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="33" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="40.83203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="25.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="35.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="33.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -537,148 +783,712 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="G1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>93</v>
       </c>
       <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
       <c r="F3" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>93</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>93</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>93</v>
+      </c>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>93</v>
+      </c>
+      <c r="B18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" t="s">
+        <v>64</v>
+      </c>
+      <c r="G20" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" t="s">
+        <v>65</v>
+      </c>
+      <c r="G21" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" t="s">
+        <v>67</v>
+      </c>
+      <c r="G22" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" t="s">
+        <v>83</v>
+      </c>
+      <c r="D23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" t="s">
+        <v>69</v>
+      </c>
+      <c r="G23" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" t="s">
+        <v>37</v>
+      </c>
+      <c r="G24" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>93</v>
+      </c>
+      <c r="B25" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>93</v>
+      </c>
+      <c r="B26" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" t="s">
+        <v>95</v>
+      </c>
+      <c r="D26" t="s">
+        <v>109</v>
+      </c>
+      <c r="F26" t="s">
+        <v>100</v>
+      </c>
+      <c r="G26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>93</v>
+      </c>
+      <c r="B27" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27" t="s">
+        <v>97</v>
+      </c>
+      <c r="D27" t="s">
+        <v>98</v>
+      </c>
+      <c r="G27" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>101</v>
+      </c>
+      <c r="B28" t="s">
         <v>3</v>
       </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
-        <v>36</v>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" t="s">
+        <v>102</v>
+      </c>
+      <c r="G28" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>101</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G29" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>101</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s">
+        <v>104</v>
+      </c>
+      <c r="D30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" t="s">
+        <v>105</v>
+      </c>
+      <c r="F30" t="s">
+        <v>106</v>
+      </c>
+      <c r="G30" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>101</v>
+      </c>
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" t="s">
+        <v>111</v>
+      </c>
+      <c r="D31" t="s">
+        <v>114</v>
+      </c>
+      <c r="E31" t="s">
+        <v>105</v>
+      </c>
+      <c r="G31" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>101</v>
+      </c>
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" t="s">
+        <v>107</v>
+      </c>
+      <c r="D32" t="s">
+        <v>112</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G32" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>101</v>
+      </c>
+      <c r="B33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" t="s">
+        <v>108</v>
+      </c>
+      <c r="D33" t="s">
+        <v>109</v>
+      </c>
+      <c r="F33" t="s">
+        <v>106</v>
+      </c>
+      <c r="G33" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>101</v>
+      </c>
+      <c r="B34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" t="s">
+        <v>97</v>
+      </c>
+      <c r="D34" t="s">
+        <v>98</v>
+      </c>
+      <c r="G34" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F29" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>